--- a/index.xlsx
+++ b/index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristian\Git\Portfolio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62E3E4C-6F62-4D1A-8AD4-61C1D56024B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0821F7F-0C2C-4BCE-9852-7A8D7FE8C4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF464AB0-24E0-4B4D-BD46-BC78F30BD59B}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <t>ETH-USD</t>
   </si>
   <si>
-    <t>Sparindex index globale aktier min. risiko kl</t>
+    <t>Globale aktier min. risiko</t>
   </si>
   <si>
     <t>iShares Edge MSCI World Minimum Volatility UCITS ETF USD (Acc)</t>
@@ -876,8 +876,8 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
